--- a/code/predictive modeling/funkcni/funcni data set.xlsx
+++ b/code/predictive modeling/funkcni/funcni data set.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f619c9dbaff66258/development/github/sws/code/predictive modeling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f619c9dbaff66258/development/github/sws/code/predictive modeling/funkcni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{7CD2E4E8-1F28-44FE-ADE5-F3B50EE5FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{007E78A4-2B57-4BEC-BB9C-6B2A2831D9A5}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{7CD2E4E8-1F28-44FE-ADE5-F3B50EE5FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC16C654-C351-4D30-9D8F-9C5EF9B16C0E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="3975" windowWidth="17280" windowHeight="10665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>datum</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>nove-12</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
 </sst>
 </file>
@@ -811,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CA109"/>
+  <dimension ref="A1:CB109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV83" workbookViewId="0">
-      <selection activeCell="BF101" sqref="BF101"/>
+    <sheetView tabSelected="1" topLeftCell="BY85" workbookViewId="0">
+      <selection activeCell="CE94" sqref="CE94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +830,7 @@
     <col min="67" max="67" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1065,8 +1068,11 @@
       <c r="CA1" t="s">
         <v>66</v>
       </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>201502</v>
       </c>
@@ -1124,8 +1130,11 @@
       <c r="BO2" s="8">
         <v>82</v>
       </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>201503</v>
       </c>
@@ -1423,8 +1432,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="CB3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>201504</v>
       </c>
@@ -1722,8 +1734,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="CB4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>201505</v>
       </c>
@@ -2021,8 +2036,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="CB5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>201506</v>
       </c>
@@ -2320,8 +2338,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="CB6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>201507</v>
       </c>
@@ -2619,8 +2640,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="CB7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>201508</v>
       </c>
@@ -2918,8 +2942,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="CB8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>201509</v>
       </c>
@@ -3217,8 +3244,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="CB9">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>201510</v>
       </c>
@@ -3516,8 +3546,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="CB10">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>201511</v>
       </c>
@@ -3815,8 +3848,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="CB11">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>201512</v>
       </c>
@@ -4114,8 +4150,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="CB12">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>201601</v>
       </c>
@@ -4413,8 +4452,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="CB13">
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>201602</v>
       </c>
@@ -4712,8 +4754,11 @@
         <f t="shared" si="4"/>
         <v>82</v>
       </c>
+      <c r="CB14">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>201603</v>
       </c>
@@ -5011,8 +5056,11 @@
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
+      <c r="CB15">
+        <v>13</v>
+      </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>201604</v>
       </c>
@@ -5310,8 +5358,11 @@
         <f t="shared" si="4"/>
         <v>76</v>
       </c>
+      <c r="CB16">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>201605</v>
       </c>
@@ -5609,8 +5660,11 @@
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
+      <c r="CB17">
+        <v>15</v>
+      </c>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>201606</v>
       </c>
@@ -5908,8 +5962,11 @@
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
+      <c r="CB18">
+        <v>16</v>
+      </c>
     </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>201607</v>
       </c>
@@ -6207,8 +6264,11 @@
         <f t="shared" si="9"/>
         <v>67</v>
       </c>
+      <c r="CB19">
+        <v>17</v>
+      </c>
     </row>
-    <row r="20" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>201608</v>
       </c>
@@ -6506,8 +6566,11 @@
         <f t="shared" si="9"/>
         <v>64</v>
       </c>
+      <c r="CB20">
+        <v>18</v>
+      </c>
     </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>201609</v>
       </c>
@@ -6805,8 +6868,11 @@
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
+      <c r="CB21">
+        <v>19</v>
+      </c>
     </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>201610</v>
       </c>
@@ -7104,8 +7170,11 @@
         <f t="shared" si="9"/>
         <v>69</v>
       </c>
+      <c r="CB22">
+        <v>20</v>
+      </c>
     </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>201611</v>
       </c>
@@ -7403,8 +7472,11 @@
         <f t="shared" si="9"/>
         <v>66</v>
       </c>
+      <c r="CB23">
+        <v>21</v>
+      </c>
     </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>201612</v>
       </c>
@@ -7702,8 +7774,11 @@
         <f t="shared" si="9"/>
         <v>77</v>
       </c>
+      <c r="CB24">
+        <v>22</v>
+      </c>
     </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>201701</v>
       </c>
@@ -8001,8 +8076,11 @@
         <f t="shared" si="9"/>
         <v>74</v>
       </c>
+      <c r="CB25">
+        <v>23</v>
+      </c>
     </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>201702</v>
       </c>
@@ -8300,8 +8378,11 @@
         <f t="shared" si="9"/>
         <v>73</v>
       </c>
+      <c r="CB26">
+        <v>24</v>
+      </c>
     </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>201703</v>
       </c>
@@ -8599,8 +8680,11 @@
         <f t="shared" si="9"/>
         <v>69</v>
       </c>
+      <c r="CB27">
+        <v>25</v>
+      </c>
     </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>201704</v>
       </c>
@@ -8898,8 +8982,11 @@
         <f t="shared" si="9"/>
         <v>64</v>
       </c>
+      <c r="CB28">
+        <v>26</v>
+      </c>
     </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>201705</v>
       </c>
@@ -9197,8 +9284,11 @@
         <f t="shared" si="9"/>
         <v>68</v>
       </c>
+      <c r="CB29">
+        <v>27</v>
+      </c>
     </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>201706</v>
       </c>
@@ -9496,8 +9586,11 @@
         <f t="shared" si="9"/>
         <v>67</v>
       </c>
+      <c r="CB30">
+        <v>28</v>
+      </c>
     </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>201707</v>
       </c>
@@ -9795,8 +9888,11 @@
         <f t="shared" si="9"/>
         <v>78</v>
       </c>
+      <c r="CB31">
+        <v>29</v>
+      </c>
     </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>201708</v>
       </c>
@@ -10094,8 +10190,11 @@
         <f t="shared" si="9"/>
         <v>74</v>
       </c>
+      <c r="CB32">
+        <v>30</v>
+      </c>
     </row>
-    <row r="33" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>201709</v>
       </c>
@@ -10393,8 +10492,11 @@
         <f t="shared" si="9"/>
         <v>66</v>
       </c>
+      <c r="CB33">
+        <v>31</v>
+      </c>
     </row>
-    <row r="34" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>201710</v>
       </c>
@@ -10692,8 +10794,11 @@
         <f t="shared" si="9"/>
         <v>63</v>
       </c>
+      <c r="CB34">
+        <v>32</v>
+      </c>
     </row>
-    <row r="35" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>201711</v>
       </c>
@@ -10991,8 +11096,11 @@
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
+      <c r="CB35">
+        <v>33</v>
+      </c>
     </row>
-    <row r="36" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201712</v>
       </c>
@@ -11290,8 +11398,11 @@
         <f t="shared" si="15"/>
         <v>59</v>
       </c>
+      <c r="CB36">
+        <v>34</v>
+      </c>
     </row>
-    <row r="37" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>201801</v>
       </c>
@@ -11589,8 +11700,11 @@
         <f t="shared" si="15"/>
         <v>66</v>
       </c>
+      <c r="CB37">
+        <v>35</v>
+      </c>
     </row>
-    <row r="38" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>201802</v>
       </c>
@@ -11888,8 +12002,11 @@
         <f t="shared" si="15"/>
         <v>61</v>
       </c>
+      <c r="CB38">
+        <v>36</v>
+      </c>
     </row>
-    <row r="39" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>201803</v>
       </c>
@@ -12187,8 +12304,11 @@
         <f t="shared" si="15"/>
         <v>53</v>
       </c>
+      <c r="CB39">
+        <v>37</v>
+      </c>
     </row>
-    <row r="40" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>201804</v>
       </c>
@@ -12486,8 +12606,11 @@
         <f t="shared" si="15"/>
         <v>57</v>
       </c>
+      <c r="CB40">
+        <v>38</v>
+      </c>
     </row>
-    <row r="41" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>201805</v>
       </c>
@@ -12785,8 +12908,11 @@
         <f t="shared" si="15"/>
         <v>61</v>
       </c>
+      <c r="CB41">
+        <v>39</v>
+      </c>
     </row>
-    <row r="42" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>201806</v>
       </c>
@@ -13084,8 +13210,11 @@
         <f t="shared" si="15"/>
         <v>64</v>
       </c>
+      <c r="CB42">
+        <v>40</v>
+      </c>
     </row>
-    <row r="43" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>201807</v>
       </c>
@@ -13383,8 +13512,11 @@
         <f t="shared" si="15"/>
         <v>70</v>
       </c>
+      <c r="CB43">
+        <v>41</v>
+      </c>
     </row>
-    <row r="44" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>201808</v>
       </c>
@@ -13682,8 +13814,11 @@
         <f t="shared" si="15"/>
         <v>76</v>
       </c>
+      <c r="CB44">
+        <v>42</v>
+      </c>
     </row>
-    <row r="45" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>201809</v>
       </c>
@@ -13981,8 +14116,11 @@
         <f t="shared" si="15"/>
         <v>68</v>
       </c>
+      <c r="CB45">
+        <v>43</v>
+      </c>
     </row>
-    <row r="46" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>201810</v>
       </c>
@@ -14280,8 +14418,11 @@
         <f t="shared" si="15"/>
         <v>71</v>
       </c>
+      <c r="CB46">
+        <v>44</v>
+      </c>
     </row>
-    <row r="47" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>201811</v>
       </c>
@@ -14579,8 +14720,11 @@
         <f t="shared" si="15"/>
         <v>64</v>
       </c>
+      <c r="CB47">
+        <v>45</v>
+      </c>
     </row>
-    <row r="48" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>201812</v>
       </c>
@@ -14878,8 +15022,11 @@
         <f t="shared" si="15"/>
         <v>71</v>
       </c>
+      <c r="CB48">
+        <v>46</v>
+      </c>
     </row>
-    <row r="49" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>201901</v>
       </c>
@@ -15177,8 +15324,11 @@
         <f t="shared" si="15"/>
         <v>74</v>
       </c>
+      <c r="CB49">
+        <v>47</v>
+      </c>
     </row>
-    <row r="50" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>201902</v>
       </c>
@@ -15476,8 +15626,11 @@
         <f t="shared" si="15"/>
         <v>71</v>
       </c>
+      <c r="CB50">
+        <v>48</v>
+      </c>
     </row>
-    <row r="51" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>201903</v>
       </c>
@@ -15775,8 +15928,11 @@
         <f t="shared" si="15"/>
         <v>77</v>
       </c>
+      <c r="CB51">
+        <v>49</v>
+      </c>
     </row>
-    <row r="52" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>201904</v>
       </c>
@@ -16074,8 +16230,11 @@
         <f t="shared" si="15"/>
         <v>71</v>
       </c>
+      <c r="CB52">
+        <v>50</v>
+      </c>
     </row>
-    <row r="53" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>201905</v>
       </c>
@@ -16373,8 +16532,11 @@
         <f t="shared" si="15"/>
         <v>74</v>
       </c>
+      <c r="CB53">
+        <v>51</v>
+      </c>
     </row>
-    <row r="54" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>201906</v>
       </c>
@@ -16672,8 +16834,11 @@
         <f t="shared" si="15"/>
         <v>81</v>
       </c>
+      <c r="CB54">
+        <v>52</v>
+      </c>
     </row>
-    <row r="55" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>201907</v>
       </c>
@@ -16971,8 +17136,11 @@
         <f t="shared" si="15"/>
         <v>78</v>
       </c>
+      <c r="CB55">
+        <v>53</v>
+      </c>
     </row>
-    <row r="56" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>201908</v>
       </c>
@@ -17270,8 +17438,11 @@
         <f t="shared" si="15"/>
         <v>77</v>
       </c>
+      <c r="CB56">
+        <v>54</v>
+      </c>
     </row>
-    <row r="57" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>201909</v>
       </c>
@@ -17569,8 +17740,11 @@
         <f t="shared" si="20"/>
         <v>78</v>
       </c>
+      <c r="CB57">
+        <v>55</v>
+      </c>
     </row>
-    <row r="58" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>201910</v>
       </c>
@@ -17770,7 +17944,7 @@
         <v>64</v>
       </c>
       <c r="BC58">
-        <f t="shared" ref="BC58:BC108" si="23">BB57</f>
+        <f t="shared" ref="BC58:BC98" si="23">BB57</f>
         <v>63</v>
       </c>
       <c r="BD58">
@@ -17868,8 +18042,11 @@
         <f t="shared" si="20"/>
         <v>78</v>
       </c>
+      <c r="CB58">
+        <v>56</v>
+      </c>
     </row>
-    <row r="59" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>201911</v>
       </c>
@@ -18167,8 +18344,11 @@
         <f t="shared" si="20"/>
         <v>84</v>
       </c>
+      <c r="CB59">
+        <v>57</v>
+      </c>
     </row>
-    <row r="60" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>201912</v>
       </c>
@@ -18466,8 +18646,11 @@
         <f t="shared" si="20"/>
         <v>90</v>
       </c>
+      <c r="CB60">
+        <v>58</v>
+      </c>
     </row>
-    <row r="61" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>202001</v>
       </c>
@@ -18765,8 +18948,11 @@
         <f t="shared" si="20"/>
         <v>96</v>
       </c>
+      <c r="CB61">
+        <v>59</v>
+      </c>
     </row>
-    <row r="62" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>202002</v>
       </c>
@@ -19064,8 +19250,11 @@
         <f t="shared" si="20"/>
         <v>94</v>
       </c>
+      <c r="CB62">
+        <v>60</v>
+      </c>
     </row>
-    <row r="63" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>202003</v>
       </c>
@@ -19363,8 +19552,11 @@
         <f t="shared" si="20"/>
         <v>85</v>
       </c>
+      <c r="CB63">
+        <v>61</v>
+      </c>
     </row>
-    <row r="64" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>202004</v>
       </c>
@@ -19662,8 +19854,11 @@
         <f t="shared" si="20"/>
         <v>93</v>
       </c>
+      <c r="CB64">
+        <v>62</v>
+      </c>
     </row>
-    <row r="65" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>202005</v>
       </c>
@@ -19961,8 +20156,11 @@
         <f t="shared" si="20"/>
         <v>86</v>
       </c>
+      <c r="CB65">
+        <v>63</v>
+      </c>
     </row>
-    <row r="66" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>202006</v>
       </c>
@@ -20260,8 +20458,11 @@
         <f t="shared" si="20"/>
         <v>92</v>
       </c>
+      <c r="CB66">
+        <v>64</v>
+      </c>
     </row>
-    <row r="67" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>202007</v>
       </c>
@@ -20559,8 +20760,11 @@
         <f t="shared" si="20"/>
         <v>96</v>
       </c>
+      <c r="CB67">
+        <v>65</v>
+      </c>
     </row>
-    <row r="68" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>202008</v>
       </c>
@@ -20858,8 +21062,11 @@
         <f t="shared" si="20"/>
         <v>102</v>
       </c>
+      <c r="CB68">
+        <v>66</v>
+      </c>
     </row>
-    <row r="69" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>202009</v>
       </c>
@@ -21157,8 +21364,11 @@
         <f t="shared" si="20"/>
         <v>99</v>
       </c>
+      <c r="CB69">
+        <v>67</v>
+      </c>
     </row>
-    <row r="70" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>202010</v>
       </c>
@@ -21456,8 +21666,11 @@
         <f t="shared" si="20"/>
         <v>97</v>
       </c>
+      <c r="CB70">
+        <v>68</v>
+      </c>
     </row>
-    <row r="71" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>202011</v>
       </c>
@@ -21755,8 +21968,11 @@
         <f t="shared" si="20"/>
         <v>92</v>
       </c>
+      <c r="CB71">
+        <v>69</v>
+      </c>
     </row>
-    <row r="72" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>202012</v>
       </c>
@@ -22054,8 +22270,11 @@
         <f t="shared" si="20"/>
         <v>93</v>
       </c>
+      <c r="CB72">
+        <v>70</v>
+      </c>
     </row>
-    <row r="73" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>202101</v>
       </c>
@@ -22353,8 +22572,11 @@
         <f t="shared" si="20"/>
         <v>99</v>
       </c>
+      <c r="CB73">
+        <v>71</v>
+      </c>
     </row>
-    <row r="74" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>202102</v>
       </c>
@@ -22652,8 +22874,11 @@
         <f t="shared" si="20"/>
         <v>97</v>
       </c>
+      <c r="CB74">
+        <v>72</v>
+      </c>
     </row>
-    <row r="75" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>202103</v>
       </c>
@@ -22951,8 +23176,11 @@
         <f t="shared" si="20"/>
         <v>91</v>
       </c>
+      <c r="CB75">
+        <v>73</v>
+      </c>
     </row>
-    <row r="76" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>202104</v>
       </c>
@@ -23250,8 +23478,11 @@
         <f t="shared" si="20"/>
         <v>81</v>
       </c>
+      <c r="CB76">
+        <v>74</v>
+      </c>
     </row>
-    <row r="77" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>202105</v>
       </c>
@@ -23549,8 +23780,11 @@
         <f t="shared" si="20"/>
         <v>62</v>
       </c>
+      <c r="CB77">
+        <v>75</v>
+      </c>
     </row>
-    <row r="78" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>202106</v>
       </c>
@@ -23848,8 +24082,11 @@
         <f t="shared" si="20"/>
         <v>67</v>
       </c>
+      <c r="CB78">
+        <v>76</v>
+      </c>
     </row>
-    <row r="79" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>202107</v>
       </c>
@@ -24147,8 +24384,11 @@
         <f t="shared" si="20"/>
         <v>72</v>
       </c>
+      <c r="CB79">
+        <v>77</v>
+      </c>
     </row>
-    <row r="80" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>202108</v>
       </c>
@@ -24446,8 +24686,11 @@
         <f t="shared" si="30"/>
         <v>82</v>
       </c>
+      <c r="CB80">
+        <v>78</v>
+      </c>
     </row>
-    <row r="81" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>202109</v>
       </c>
@@ -24745,8 +24988,11 @@
         <f t="shared" si="30"/>
         <v>80</v>
       </c>
+      <c r="CB81">
+        <v>79</v>
+      </c>
     </row>
-    <row r="82" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>202110</v>
       </c>
@@ -25044,8 +25290,11 @@
         <f t="shared" si="30"/>
         <v>82</v>
       </c>
+      <c r="CB82">
+        <v>80</v>
+      </c>
     </row>
-    <row r="83" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>202111</v>
       </c>
@@ -25343,8 +25592,11 @@
         <f t="shared" si="30"/>
         <v>76</v>
       </c>
+      <c r="CB83">
+        <v>81</v>
+      </c>
     </row>
-    <row r="84" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>202112</v>
       </c>
@@ -25642,8 +25894,11 @@
         <f t="shared" si="30"/>
         <v>83</v>
       </c>
+      <c r="CB84">
+        <v>82</v>
+      </c>
     </row>
-    <row r="85" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>202201</v>
       </c>
@@ -25941,8 +26196,11 @@
         <f t="shared" si="30"/>
         <v>90</v>
       </c>
+      <c r="CB85">
+        <v>83</v>
+      </c>
     </row>
-    <row r="86" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>202202</v>
       </c>
@@ -26240,8 +26498,11 @@
         <f t="shared" si="30"/>
         <v>93</v>
       </c>
+      <c r="CB86">
+        <v>84</v>
+      </c>
     </row>
-    <row r="87" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>202203</v>
       </c>
@@ -26539,8 +26800,11 @@
         <f t="shared" si="30"/>
         <v>86</v>
       </c>
+      <c r="CB87">
+        <v>85</v>
+      </c>
     </row>
-    <row r="88" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>202204</v>
       </c>
@@ -26838,8 +27102,11 @@
         <f t="shared" si="30"/>
         <v>84</v>
       </c>
+      <c r="CB88">
+        <v>86</v>
+      </c>
     </row>
-    <row r="89" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>202205</v>
       </c>
@@ -27137,8 +27404,11 @@
         <f t="shared" si="30"/>
         <v>86</v>
       </c>
+      <c r="CB89">
+        <v>87</v>
+      </c>
     </row>
-    <row r="90" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>202206</v>
       </c>
@@ -27436,8 +27706,11 @@
         <f t="shared" si="30"/>
         <v>81</v>
       </c>
+      <c r="CB90">
+        <v>88</v>
+      </c>
     </row>
-    <row r="91" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>202207</v>
       </c>
@@ -27735,8 +28008,11 @@
         <f t="shared" si="30"/>
         <v>90</v>
       </c>
+      <c r="CB91">
+        <v>89</v>
+      </c>
     </row>
-    <row r="92" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>202208</v>
       </c>
@@ -28034,8 +28310,11 @@
         <f t="shared" si="30"/>
         <v>84</v>
       </c>
+      <c r="CB92">
+        <v>90</v>
+      </c>
     </row>
-    <row r="93" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>202209</v>
       </c>
@@ -28333,8 +28612,11 @@
         <f t="shared" si="30"/>
         <v>80</v>
       </c>
+      <c r="CB93">
+        <v>91</v>
+      </c>
     </row>
-    <row r="94" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>202210</v>
       </c>
@@ -28632,8 +28914,11 @@
         <f t="shared" si="30"/>
         <v>65</v>
       </c>
+      <c r="CB94">
+        <v>92</v>
+      </c>
     </row>
-    <row r="95" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>202211</v>
       </c>
@@ -28931,8 +29216,11 @@
         <f t="shared" si="30"/>
         <v>61</v>
       </c>
+      <c r="CB95">
+        <v>93</v>
+      </c>
     </row>
-    <row r="96" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>202212</v>
       </c>
@@ -29230,8 +29518,11 @@
         <f t="shared" si="30"/>
         <v>66</v>
       </c>
+      <c r="CB96">
+        <v>94</v>
+      </c>
     </row>
-    <row r="97" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>202301</v>
       </c>
@@ -29529,8 +29820,11 @@
         <f t="shared" si="30"/>
         <v>76</v>
       </c>
+      <c r="CB97">
+        <v>95</v>
+      </c>
     </row>
-    <row r="98" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>202302</v>
       </c>
@@ -29813,8 +30107,11 @@
         <f t="shared" si="30"/>
         <v>67</v>
       </c>
+      <c r="CB98">
+        <v>96</v>
+      </c>
     </row>
-    <row r="99" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>202303</v>
       </c>
@@ -30093,8 +30390,11 @@
         <f t="shared" si="30"/>
         <v>62</v>
       </c>
+      <c r="CB99">
+        <v>97</v>
+      </c>
     </row>
-    <row r="100" spans="1:79" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:80" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>202304</v>
       </c>
@@ -30374,8 +30674,11 @@
         <f t="shared" si="30"/>
         <v>62</v>
       </c>
+      <c r="CB100">
+        <v>98</v>
+      </c>
     </row>
-    <row r="101" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>202305</v>
       </c>
@@ -30646,8 +30949,11 @@
         <f t="shared" si="30"/>
         <v>60</v>
       </c>
+      <c r="CB101">
+        <v>99</v>
+      </c>
     </row>
-    <row r="102" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>202306</v>
       </c>
@@ -30918,8 +31224,11 @@
         <f t="shared" si="30"/>
         <v>66</v>
       </c>
+      <c r="CB102">
+        <v>100</v>
+      </c>
     </row>
-    <row r="103" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>202307</v>
       </c>
@@ -31123,7 +31432,7 @@
         <v>55</v>
       </c>
       <c r="BJ103">
-        <f t="shared" ref="BD103:BN109" si="34">BI102</f>
+        <f t="shared" ref="BF103:BN109" si="34">BI102</f>
         <v>60</v>
       </c>
       <c r="BK103">
@@ -31190,8 +31499,11 @@
         <f t="shared" si="35"/>
         <v>68</v>
       </c>
+      <c r="CB103">
+        <v>101</v>
+      </c>
     </row>
-    <row r="104" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>202308</v>
       </c>
@@ -31462,8 +31774,11 @@
         <f t="shared" si="35"/>
         <v>67</v>
       </c>
+      <c r="CB104">
+        <v>102</v>
+      </c>
     </row>
-    <row r="105" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>202309</v>
       </c>
@@ -31734,8 +32049,11 @@
         <f t="shared" si="35"/>
         <v>71</v>
       </c>
+      <c r="CB105">
+        <v>103</v>
+      </c>
     </row>
-    <row r="106" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>202310</v>
       </c>
@@ -32006,8 +32324,11 @@
         <f t="shared" si="35"/>
         <v>80</v>
       </c>
+      <c r="CB106">
+        <v>104</v>
+      </c>
     </row>
-    <row r="107" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>202312</v>
       </c>
@@ -32278,8 +32599,11 @@
         <f t="shared" si="35"/>
         <v>75</v>
       </c>
+      <c r="CB107">
+        <v>105</v>
+      </c>
     </row>
-    <row r="108" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>202401</v>
       </c>
@@ -32550,8 +32874,11 @@
         <f t="shared" si="35"/>
         <v>88</v>
       </c>
+      <c r="CB108">
+        <v>106</v>
+      </c>
     </row>
-    <row r="109" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>202402</v>
       </c>
@@ -32821,6 +33148,9 @@
       <c r="CA109">
         <f t="shared" si="35"/>
         <v>93</v>
+      </c>
+      <c r="CB109">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/code/predictive modeling/funkcni/funcni data set.xlsx
+++ b/code/predictive modeling/funkcni/funcni data set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f619c9dbaff66258/development/github/sws/code/predictive modeling/funkcni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{7CD2E4E8-1F28-44FE-ADE5-F3B50EE5FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC16C654-C351-4D30-9D8F-9C5EF9B16C0E}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{7CD2E4E8-1F28-44FE-ADE5-F3B50EE5FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{038BE048-53A7-4A3F-8C17-EE144B1D2570}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="3975" windowWidth="17280" windowHeight="10665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11415" yWindow="0" windowWidth="11730" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -517,6 +517,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -814,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CB109"/>
+  <dimension ref="A1:CB110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY85" workbookViewId="0">
-      <selection activeCell="CE94" sqref="CE94"/>
+    <sheetView tabSelected="1" topLeftCell="BA82" workbookViewId="0">
+      <selection activeCell="BE112" sqref="BE112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29867,6 +29871,9 @@
       <c r="N98" s="1">
         <v>275</v>
       </c>
+      <c r="O98" s="1">
+        <v>7714</v>
+      </c>
       <c r="P98" s="3">
         <f t="shared" si="21"/>
         <v>9268</v>
@@ -29915,6 +29922,9 @@
         <f t="shared" si="26"/>
         <v>4947</v>
       </c>
+      <c r="AB98" s="1">
+        <v>1674</v>
+      </c>
       <c r="AC98" s="1">
         <f t="shared" si="25"/>
         <v>2760</v>
@@ -29963,6 +29973,9 @@
         <f t="shared" si="27"/>
         <v>1473</v>
       </c>
+      <c r="AO98" s="1">
+        <v>125222</v>
+      </c>
       <c r="AP98" s="1">
         <f t="shared" si="22"/>
         <v>124827</v>
@@ -30011,6 +30024,9 @@
         <f t="shared" si="28"/>
         <v>130339</v>
       </c>
+      <c r="BB98" s="1">
+        <v>54</v>
+      </c>
       <c r="BC98" s="1">
         <f t="shared" si="23"/>
         <v>59</v>
@@ -30058,6 +30074,9 @@
       <c r="BN98" s="1">
         <f t="shared" si="29"/>
         <v>117</v>
+      </c>
+      <c r="BO98" s="1">
+        <v>96</v>
       </c>
       <c r="BP98" s="1">
         <f t="shared" si="24"/>
@@ -30156,7 +30175,7 @@
       </c>
       <c r="P99" s="10">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>7714</v>
       </c>
       <c r="Q99" s="1">
         <f t="shared" si="26"/>
@@ -30204,7 +30223,7 @@
       </c>
       <c r="AC99" s="1">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1674</v>
       </c>
       <c r="AD99" s="1">
         <f t="shared" si="25"/>
@@ -30252,7 +30271,7 @@
       </c>
       <c r="AP99">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>125222</v>
       </c>
       <c r="AQ99">
         <f t="shared" si="28"/>
@@ -30298,16 +30317,20 @@
         <f t="shared" si="28"/>
         <v>130706</v>
       </c>
-      <c r="BD99">
-        <f t="shared" si="29"/>
+      <c r="BC99" s="1">
+        <f t="shared" ref="BC99:BC110" si="31">BB98</f>
+        <v>54</v>
+      </c>
+      <c r="BD99" s="1">
+        <f t="shared" ref="BD99:BD110" si="32">BC98</f>
         <v>59</v>
       </c>
-      <c r="BE99">
-        <f t="shared" si="29"/>
+      <c r="BE99" s="1">
+        <f t="shared" ref="BE99:BE110" si="33">BD98</f>
         <v>55</v>
       </c>
-      <c r="BF99">
-        <f t="shared" si="29"/>
+      <c r="BF99" s="1">
+        <f t="shared" ref="BF99:BF110" si="34">BE98</f>
         <v>60</v>
       </c>
       <c r="BG99">
@@ -30344,7 +30367,7 @@
       </c>
       <c r="BP99">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="BQ99">
         <f t="shared" si="30"/>
@@ -30444,7 +30467,7 @@
       </c>
       <c r="Q100" s="3">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>7714</v>
       </c>
       <c r="R100" s="3">
         <f t="shared" si="26"/>
@@ -30488,51 +30511,51 @@
       </c>
       <c r="AB100" s="2"/>
       <c r="AC100" s="3">
-        <f t="shared" ref="AC100:AN109" si="31">AB99</f>
+        <f t="shared" ref="AC100:AN109" si="35">AB99</f>
         <v>0</v>
       </c>
       <c r="AD100" s="3">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>1674</v>
       </c>
       <c r="AE100" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2760</v>
       </c>
       <c r="AF100" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1166</v>
       </c>
       <c r="AG100" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1842</v>
       </c>
       <c r="AH100" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2044</v>
       </c>
       <c r="AI100" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1961</v>
       </c>
       <c r="AJ100" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1814</v>
       </c>
       <c r="AK100" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1654</v>
       </c>
       <c r="AL100" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1952</v>
       </c>
       <c r="AM100" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1932</v>
       </c>
       <c r="AN100" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1822</v>
       </c>
       <c r="AO100" s="13"/>
@@ -30542,7 +30565,7 @@
       </c>
       <c r="AQ100" s="9">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>125222</v>
       </c>
       <c r="AR100" s="9">
         <f t="shared" si="28"/>
@@ -30585,12 +30608,20 @@
         <v>132612</v>
       </c>
       <c r="BB100" s="14"/>
-      <c r="BE100" s="9">
-        <f t="shared" si="29"/>
+      <c r="BC100" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BD100" s="1">
+        <f t="shared" si="32"/>
+        <v>54</v>
+      </c>
+      <c r="BE100" s="1">
+        <f t="shared" si="33"/>
         <v>59</v>
       </c>
-      <c r="BF100" s="9">
-        <f t="shared" si="29"/>
+      <c r="BF100" s="1">
+        <f t="shared" si="34"/>
         <v>55</v>
       </c>
       <c r="BG100" s="9">
@@ -30632,7 +30663,7 @@
       </c>
       <c r="BQ100" s="9">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="BR100" s="9">
         <f t="shared" si="30"/>
@@ -30731,7 +30762,7 @@
       </c>
       <c r="R101" s="1">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>7714</v>
       </c>
       <c r="S101" s="1">
         <f t="shared" si="26"/>
@@ -30770,51 +30801,51 @@
         <v>6266</v>
       </c>
       <c r="AC101" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AD101" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AE101" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>1674</v>
       </c>
       <c r="AF101" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2760</v>
       </c>
       <c r="AG101" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1166</v>
       </c>
       <c r="AH101" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1842</v>
       </c>
       <c r="AI101" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2044</v>
       </c>
       <c r="AJ101" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1961</v>
       </c>
       <c r="AK101" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1814</v>
       </c>
       <c r="AL101" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1654</v>
       </c>
       <c r="AM101" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1952</v>
       </c>
       <c r="AN101" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1932</v>
       </c>
       <c r="AP101">
@@ -30827,7 +30858,7 @@
       </c>
       <c r="AR101">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>125222</v>
       </c>
       <c r="AS101">
         <f t="shared" si="28"/>
@@ -30865,8 +30896,20 @@
         <f t="shared" si="28"/>
         <v>132193</v>
       </c>
-      <c r="BF101">
-        <f t="shared" si="29"/>
+      <c r="BC101" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BD101" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BE101" s="1">
+        <f t="shared" si="33"/>
+        <v>54</v>
+      </c>
+      <c r="BF101" s="1">
+        <f t="shared" si="34"/>
         <v>59</v>
       </c>
       <c r="BG101">
@@ -30911,7 +30954,7 @@
       </c>
       <c r="BR101">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="BS101">
         <f t="shared" si="30"/>
@@ -31010,7 +31053,7 @@
       </c>
       <c r="S102" s="1">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>7714</v>
       </c>
       <c r="T102" s="1">
         <f t="shared" si="26"/>
@@ -31045,51 +31088,51 @@
         <v>6626</v>
       </c>
       <c r="AC102" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AD102" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AE102" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AF102" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>1674</v>
       </c>
       <c r="AG102" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2760</v>
       </c>
       <c r="AH102" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1166</v>
       </c>
       <c r="AI102" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1842</v>
       </c>
       <c r="AJ102" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2044</v>
       </c>
       <c r="AK102" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1961</v>
       </c>
       <c r="AL102" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1814</v>
       </c>
       <c r="AM102" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1654</v>
       </c>
       <c r="AN102" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1952</v>
       </c>
       <c r="AP102">
@@ -31106,7 +31149,7 @@
       </c>
       <c r="AS102">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>125222</v>
       </c>
       <c r="AT102">
         <f t="shared" si="28"/>
@@ -31140,9 +31183,21 @@
         <f t="shared" si="28"/>
         <v>131416</v>
       </c>
-      <c r="BF102">
-        <f t="shared" si="29"/>
-        <v>0</v>
+      <c r="BC102" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BD102" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BE102" s="1">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BF102" s="1">
+        <f t="shared" si="34"/>
+        <v>54</v>
       </c>
       <c r="BG102">
         <f t="shared" si="29"/>
@@ -31190,7 +31245,7 @@
       </c>
       <c r="BS102">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="BT102">
         <f t="shared" si="30"/>
@@ -31289,7 +31344,7 @@
       </c>
       <c r="T103" s="1">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>7714</v>
       </c>
       <c r="U103" s="1">
         <f t="shared" si="26"/>
@@ -31300,71 +31355,71 @@
         <v>7674</v>
       </c>
       <c r="W103" s="1">
-        <f t="shared" ref="Q103:AA109" si="32">V102</f>
+        <f t="shared" ref="Q103:AA109" si="36">V102</f>
         <v>8366</v>
       </c>
       <c r="X103" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8270</v>
       </c>
       <c r="Y103" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7778</v>
       </c>
       <c r="Z103" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7141</v>
       </c>
       <c r="AA103" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>6637</v>
       </c>
       <c r="AC103" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AD103" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AE103" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AF103" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AG103" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>1674</v>
       </c>
       <c r="AH103" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2760</v>
       </c>
       <c r="AI103" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1166</v>
       </c>
       <c r="AJ103" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1842</v>
       </c>
       <c r="AK103" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2044</v>
       </c>
       <c r="AL103" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1961</v>
       </c>
       <c r="AM103" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1814</v>
       </c>
       <c r="AN103" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1654</v>
       </c>
       <c r="AP103">
@@ -31385,7 +31440,7 @@
       </c>
       <c r="AT103">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>125222</v>
       </c>
       <c r="AU103">
         <f t="shared" si="28"/>
@@ -31396,32 +31451,44 @@
         <v>125408</v>
       </c>
       <c r="AW103">
-        <f t="shared" ref="AQ103:BA109" si="33">AV102</f>
+        <f t="shared" ref="AQ103:BA109" si="37">AV102</f>
         <v>125341</v>
       </c>
       <c r="AX103">
+        <f t="shared" si="37"/>
+        <v>127614</v>
+      </c>
+      <c r="AY103">
+        <f t="shared" si="37"/>
+        <v>129070</v>
+      </c>
+      <c r="AZ103">
+        <f t="shared" si="37"/>
+        <v>130789</v>
+      </c>
+      <c r="BA103">
+        <f t="shared" si="37"/>
+        <v>131451</v>
+      </c>
+      <c r="BC103" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BD103" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BE103" s="1">
         <f t="shared" si="33"/>
-        <v>127614</v>
-      </c>
-      <c r="AY103">
-        <f t="shared" si="33"/>
-        <v>129070</v>
-      </c>
-      <c r="AZ103">
-        <f t="shared" si="33"/>
-        <v>130789</v>
-      </c>
-      <c r="BA103">
-        <f t="shared" si="33"/>
-        <v>131451</v>
-      </c>
-      <c r="BF103">
-        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="BF103" s="1">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BG103">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="BH103">
         <f t="shared" si="29"/>
@@ -31432,23 +31499,23 @@
         <v>55</v>
       </c>
       <c r="BJ103">
-        <f t="shared" ref="BF103:BN109" si="34">BI102</f>
+        <f t="shared" ref="BF103:BN109" si="38">BI102</f>
         <v>60</v>
       </c>
       <c r="BK103">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>64</v>
       </c>
       <c r="BL103">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>65</v>
       </c>
       <c r="BM103">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>70</v>
       </c>
       <c r="BN103">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>69</v>
       </c>
       <c r="BP103">
@@ -31469,7 +31536,7 @@
       </c>
       <c r="BT103">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="BU103">
         <f t="shared" si="30"/>
@@ -31480,23 +31547,23 @@
         <v>88</v>
       </c>
       <c r="BW103">
-        <f t="shared" ref="BQ103:CA109" si="35">BV102</f>
+        <f t="shared" ref="BQ103:CA109" si="39">BV102</f>
         <v>75</v>
       </c>
       <c r="BX103">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>80</v>
       </c>
       <c r="BY103">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>71</v>
       </c>
       <c r="BZ103">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>67</v>
       </c>
       <c r="CA103">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>68</v>
       </c>
       <c r="CB103">
@@ -31551,95 +31618,95 @@
         <v>0</v>
       </c>
       <c r="Q104" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R104" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S104" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T104" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>7714</v>
       </c>
       <c r="V104" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9268</v>
       </c>
       <c r="W104" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7674</v>
       </c>
       <c r="X104" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8366</v>
       </c>
       <c r="Y104" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8270</v>
       </c>
       <c r="Z104" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7778</v>
       </c>
       <c r="AA104" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7141</v>
       </c>
       <c r="AC104" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AD104" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AE104" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AF104" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AG104" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AH104" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>1674</v>
       </c>
       <c r="AI104" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2760</v>
       </c>
       <c r="AJ104" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1166</v>
       </c>
       <c r="AK104" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1842</v>
       </c>
       <c r="AL104" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2044</v>
       </c>
       <c r="AM104" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1961</v>
       </c>
       <c r="AN104" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1814</v>
       </c>
       <c r="AP104">
@@ -31647,83 +31714,95 @@
         <v>0</v>
       </c>
       <c r="AQ104">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AR104">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AS104">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AT104">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AU104">
+        <f t="shared" si="37"/>
+        <v>125222</v>
+      </c>
+      <c r="AV104">
+        <f t="shared" si="37"/>
+        <v>124827</v>
+      </c>
+      <c r="AW104">
+        <f t="shared" si="37"/>
+        <v>125408</v>
+      </c>
+      <c r="AX104">
+        <f t="shared" si="37"/>
+        <v>125341</v>
+      </c>
+      <c r="AY104">
+        <f t="shared" si="37"/>
+        <v>127614</v>
+      </c>
+      <c r="AZ104">
+        <f t="shared" si="37"/>
+        <v>129070</v>
+      </c>
+      <c r="BA104">
+        <f t="shared" si="37"/>
+        <v>130789</v>
+      </c>
+      <c r="BC104" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BD104" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BE104" s="1">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AR104">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AS104">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AT104">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AU104">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AV104">
-        <f t="shared" si="33"/>
-        <v>124827</v>
-      </c>
-      <c r="AW104">
-        <f t="shared" si="33"/>
-        <v>125408</v>
-      </c>
-      <c r="AX104">
-        <f t="shared" si="33"/>
-        <v>125341</v>
-      </c>
-      <c r="AY104">
-        <f t="shared" si="33"/>
-        <v>127614</v>
-      </c>
-      <c r="AZ104">
-        <f t="shared" si="33"/>
-        <v>129070</v>
-      </c>
-      <c r="BA104">
-        <f t="shared" si="33"/>
-        <v>130789</v>
-      </c>
-      <c r="BF104">
+      <c r="BF104" s="1">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BG104">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BH104">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>54</v>
       </c>
       <c r="BI104">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>59</v>
       </c>
       <c r="BJ104">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>55</v>
       </c>
       <c r="BK104">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>60</v>
       </c>
       <c r="BL104">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>64</v>
       </c>
       <c r="BM104">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>65</v>
       </c>
       <c r="BN104">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>70</v>
       </c>
       <c r="BP104">
@@ -31731,47 +31810,47 @@
         <v>0</v>
       </c>
       <c r="BQ104">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BR104">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BS104">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BT104">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BU104">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>96</v>
       </c>
       <c r="BV104">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>93</v>
       </c>
       <c r="BW104">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>88</v>
       </c>
       <c r="BX104">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>75</v>
       </c>
       <c r="BY104">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>80</v>
       </c>
       <c r="BZ104">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>71</v>
       </c>
       <c r="CA104">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>67</v>
       </c>
       <c r="CB104">
@@ -31826,95 +31905,95 @@
         <v>0</v>
       </c>
       <c r="Q105" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R105" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S105" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V105" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>7714</v>
       </c>
       <c r="W105" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9268</v>
       </c>
       <c r="X105" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7674</v>
       </c>
       <c r="Y105" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8366</v>
       </c>
       <c r="Z105" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8270</v>
       </c>
       <c r="AA105" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7778</v>
       </c>
       <c r="AC105" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AD105" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AE105" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AF105" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AG105" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AH105" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI105" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>1674</v>
       </c>
       <c r="AJ105" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2760</v>
       </c>
       <c r="AK105" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1166</v>
       </c>
       <c r="AL105" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1842</v>
       </c>
       <c r="AM105" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2044</v>
       </c>
       <c r="AN105" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1961</v>
       </c>
       <c r="AP105">
@@ -31922,83 +32001,95 @@
         <v>0</v>
       </c>
       <c r="AQ105">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AR105">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AS105">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AT105">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AU105">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AV105">
+        <f t="shared" si="37"/>
+        <v>125222</v>
+      </c>
+      <c r="AW105">
+        <f t="shared" si="37"/>
+        <v>124827</v>
+      </c>
+      <c r="AX105">
+        <f t="shared" si="37"/>
+        <v>125408</v>
+      </c>
+      <c r="AY105">
+        <f t="shared" si="37"/>
+        <v>125341</v>
+      </c>
+      <c r="AZ105">
+        <f t="shared" si="37"/>
+        <v>127614</v>
+      </c>
+      <c r="BA105">
+        <f t="shared" si="37"/>
+        <v>129070</v>
+      </c>
+      <c r="BC105" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BD105" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BE105" s="1">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AR105">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AS105">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AT105">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AU105">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AV105">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AW105">
-        <f t="shared" si="33"/>
-        <v>124827</v>
-      </c>
-      <c r="AX105">
-        <f t="shared" si="33"/>
-        <v>125408</v>
-      </c>
-      <c r="AY105">
-        <f t="shared" si="33"/>
-        <v>125341</v>
-      </c>
-      <c r="AZ105">
-        <f t="shared" si="33"/>
-        <v>127614</v>
-      </c>
-      <c r="BA105">
-        <f t="shared" si="33"/>
-        <v>129070</v>
-      </c>
-      <c r="BF105">
+      <c r="BF105" s="1">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BG105">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BH105">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BI105">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>54</v>
       </c>
       <c r="BJ105">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>59</v>
       </c>
       <c r="BK105">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>55</v>
       </c>
       <c r="BL105">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>60</v>
       </c>
       <c r="BM105">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>64</v>
       </c>
       <c r="BN105">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>65</v>
       </c>
       <c r="BP105">
@@ -32006,47 +32097,47 @@
         <v>0</v>
       </c>
       <c r="BQ105">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BR105">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BS105">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BT105">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BU105">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BV105">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>96</v>
       </c>
       <c r="BW105">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>93</v>
       </c>
       <c r="BX105">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>88</v>
       </c>
       <c r="BY105">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>75</v>
       </c>
       <c r="BZ105">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>80</v>
       </c>
       <c r="CA105">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>71</v>
       </c>
       <c r="CB105">
@@ -32101,95 +32192,95 @@
         <v>0</v>
       </c>
       <c r="Q106" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R106" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S106" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T106" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U106" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V106" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W106" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>7714</v>
       </c>
       <c r="X106" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9268</v>
       </c>
       <c r="Y106" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7674</v>
       </c>
       <c r="Z106" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8366</v>
       </c>
       <c r="AA106" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8270</v>
       </c>
       <c r="AC106" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AD106" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AE106" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AF106" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AG106" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AH106" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI106" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AJ106" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>1674</v>
       </c>
       <c r="AK106" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2760</v>
       </c>
       <c r="AL106" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1166</v>
       </c>
       <c r="AM106" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1842</v>
       </c>
       <c r="AN106" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2044</v>
       </c>
       <c r="AP106">
@@ -32197,83 +32288,95 @@
         <v>0</v>
       </c>
       <c r="AQ106">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AR106">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AS106">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AT106">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AU106">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AV106">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AW106">
+        <f t="shared" si="37"/>
+        <v>125222</v>
+      </c>
+      <c r="AX106">
+        <f t="shared" si="37"/>
+        <v>124827</v>
+      </c>
+      <c r="AY106">
+        <f t="shared" si="37"/>
+        <v>125408</v>
+      </c>
+      <c r="AZ106">
+        <f t="shared" si="37"/>
+        <v>125341</v>
+      </c>
+      <c r="BA106">
+        <f t="shared" si="37"/>
+        <v>127614</v>
+      </c>
+      <c r="BC106" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BD106" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BE106" s="1">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AR106">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AS106">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AT106">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AU106">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AV106">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AW106">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AX106">
-        <f t="shared" si="33"/>
-        <v>124827</v>
-      </c>
-      <c r="AY106">
-        <f t="shared" si="33"/>
-        <v>125408</v>
-      </c>
-      <c r="AZ106">
-        <f t="shared" si="33"/>
-        <v>125341</v>
-      </c>
-      <c r="BA106">
-        <f t="shared" si="33"/>
-        <v>127614</v>
-      </c>
-      <c r="BF106">
+      <c r="BF106" s="1">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BG106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BH106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BI106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BJ106">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>54</v>
       </c>
       <c r="BK106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>59</v>
       </c>
       <c r="BL106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>55</v>
       </c>
       <c r="BM106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>60</v>
       </c>
       <c r="BN106">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>64</v>
       </c>
       <c r="BP106">
@@ -32281,47 +32384,47 @@
         <v>0</v>
       </c>
       <c r="BQ106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BR106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BS106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BT106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BU106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BV106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BW106">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>96</v>
       </c>
       <c r="BX106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>93</v>
       </c>
       <c r="BY106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>88</v>
       </c>
       <c r="BZ106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>75</v>
       </c>
       <c r="CA106">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>80</v>
       </c>
       <c r="CB106">
@@ -32376,95 +32479,95 @@
         <v>0</v>
       </c>
       <c r="Q107" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R107" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S107" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T107" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U107" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V107" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W107" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X107" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>7714</v>
       </c>
       <c r="Y107" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9268</v>
       </c>
       <c r="Z107" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7674</v>
       </c>
       <c r="AA107" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8366</v>
       </c>
       <c r="AC107" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AD107" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AE107" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AF107" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AG107" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AH107" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI107" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AJ107" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AK107" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>1674</v>
       </c>
       <c r="AL107" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2760</v>
       </c>
       <c r="AM107" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1166</v>
       </c>
       <c r="AN107" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1842</v>
       </c>
       <c r="AP107">
@@ -32472,83 +32575,95 @@
         <v>0</v>
       </c>
       <c r="AQ107">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AR107">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AS107">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AT107">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AU107">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AV107">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AW107">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AX107">
+        <f t="shared" si="37"/>
+        <v>125222</v>
+      </c>
+      <c r="AY107">
+        <f t="shared" si="37"/>
+        <v>124827</v>
+      </c>
+      <c r="AZ107">
+        <f t="shared" si="37"/>
+        <v>125408</v>
+      </c>
+      <c r="BA107">
+        <f t="shared" si="37"/>
+        <v>125341</v>
+      </c>
+      <c r="BC107" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BD107" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BE107" s="1">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AR107">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AS107">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AT107">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AU107">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AV107">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AW107">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AX107">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AY107">
-        <f t="shared" si="33"/>
-        <v>124827</v>
-      </c>
-      <c r="AZ107">
-        <f t="shared" si="33"/>
-        <v>125408</v>
-      </c>
-      <c r="BA107">
-        <f t="shared" si="33"/>
-        <v>125341</v>
-      </c>
-      <c r="BF107">
+      <c r="BF107" s="1">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BG107">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BH107">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BI107">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BJ107">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BK107">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>54</v>
       </c>
       <c r="BL107">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>59</v>
       </c>
       <c r="BM107">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>55</v>
       </c>
       <c r="BN107">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>60</v>
       </c>
       <c r="BP107">
@@ -32556,47 +32671,47 @@
         <v>0</v>
       </c>
       <c r="BQ107">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BR107">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BS107">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BT107">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BU107">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BV107">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BW107">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BX107">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>96</v>
       </c>
       <c r="BY107">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>93</v>
       </c>
       <c r="BZ107">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>88</v>
       </c>
       <c r="CA107">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>75</v>
       </c>
       <c r="CB107">
@@ -32651,95 +32766,95 @@
         <v>0</v>
       </c>
       <c r="Q108" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R108" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S108" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T108" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V108" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W108" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X108" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y108" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>7714</v>
       </c>
       <c r="Z108" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9268</v>
       </c>
       <c r="AA108" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7674</v>
       </c>
       <c r="AC108" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AD108" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AE108" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AF108" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AG108" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AH108" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI108" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AJ108" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AK108" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AL108" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>1674</v>
       </c>
       <c r="AM108" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2760</v>
       </c>
       <c r="AN108" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1166</v>
       </c>
       <c r="AP108">
@@ -32747,83 +32862,95 @@
         <v>0</v>
       </c>
       <c r="AQ108">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AR108">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AS108">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AT108">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AU108">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AV108">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AW108">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AX108">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AY108">
+        <f t="shared" si="37"/>
+        <v>125222</v>
+      </c>
+      <c r="AZ108">
+        <f t="shared" si="37"/>
+        <v>124827</v>
+      </c>
+      <c r="BA108">
+        <f t="shared" si="37"/>
+        <v>125408</v>
+      </c>
+      <c r="BC108" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BD108" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BE108" s="1">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AR108">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AS108">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AT108">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AU108">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AV108">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AW108">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AX108">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AY108">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AZ108">
-        <f t="shared" si="33"/>
-        <v>124827</v>
-      </c>
-      <c r="BA108">
-        <f t="shared" si="33"/>
-        <v>125408</v>
-      </c>
-      <c r="BF108">
+      <c r="BF108" s="1">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BG108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BH108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BI108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BJ108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BK108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BL108">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>54</v>
       </c>
       <c r="BM108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>59</v>
       </c>
       <c r="BN108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>55</v>
       </c>
       <c r="BP108">
@@ -32831,47 +32958,47 @@
         <v>0</v>
       </c>
       <c r="BQ108">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BR108">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BS108">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BT108">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BU108">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BV108">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BW108">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BX108">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BY108">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>96</v>
       </c>
       <c r="BZ108">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>93</v>
       </c>
       <c r="CA108">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>88</v>
       </c>
       <c r="CB108">
@@ -32926,95 +33053,95 @@
         <v>0</v>
       </c>
       <c r="Q109" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R109" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S109" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T109" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U109" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V109" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W109" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X109" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y109" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z109" s="1">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>7714</v>
       </c>
       <c r="AA109" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9268</v>
       </c>
       <c r="AC109" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AD109" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AE109" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AF109" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AG109" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AH109" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI109" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AJ109" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AK109" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AL109" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AM109" s="1">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>1674</v>
       </c>
       <c r="AN109" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2760</v>
       </c>
       <c r="AP109">
@@ -33022,83 +33149,95 @@
         <v>0</v>
       </c>
       <c r="AQ109">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AR109">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AS109">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AT109">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AU109">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AV109">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AW109">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AX109">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AY109">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AZ109">
+        <f t="shared" si="37"/>
+        <v>125222</v>
+      </c>
+      <c r="BA109">
+        <f t="shared" si="37"/>
+        <v>124827</v>
+      </c>
+      <c r="BC109" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BD109" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BE109" s="1">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AR109">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AS109">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AT109">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AU109">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AV109">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AW109">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AX109">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AY109">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AZ109">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="BA109">
-        <f t="shared" si="33"/>
-        <v>124827</v>
-      </c>
-      <c r="BF109">
+      <c r="BF109" s="1">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BG109">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BH109">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BI109">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BJ109">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BK109">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BL109">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="BM109">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>54</v>
       </c>
       <c r="BN109">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>59</v>
       </c>
       <c r="BP109">
@@ -33106,51 +33245,338 @@
         <v>0</v>
       </c>
       <c r="BQ109">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BR109">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BS109">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BT109">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BU109">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BV109">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BW109">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BX109">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BY109">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="BZ109">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>96</v>
       </c>
       <c r="CA109">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>93</v>
       </c>
       <c r="CB109">
         <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:80" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>202403</v>
+      </c>
+      <c r="B110" s="3">
+        <v>700</v>
+      </c>
+      <c r="C110" s="1">
+        <v>700</v>
+      </c>
+      <c r="D110" s="1">
+        <v>700</v>
+      </c>
+      <c r="E110" s="1">
+        <v>700</v>
+      </c>
+      <c r="F110" s="1">
+        <v>700</v>
+      </c>
+      <c r="G110" s="1">
+        <v>700</v>
+      </c>
+      <c r="H110" s="1">
+        <v>575</v>
+      </c>
+      <c r="I110" s="1">
+        <v>500</v>
+      </c>
+      <c r="J110" s="1">
+        <v>450</v>
+      </c>
+      <c r="K110" s="1">
+        <v>450</v>
+      </c>
+      <c r="L110" s="1">
+        <v>375</v>
+      </c>
+      <c r="M110" s="1">
+        <v>375</v>
+      </c>
+      <c r="N110" s="1">
+        <v>275</v>
+      </c>
+      <c r="P110" s="3">
+        <f t="shared" ref="P110" si="40">O109</f>
+        <v>0</v>
+      </c>
+      <c r="Q110" s="1">
+        <f t="shared" ref="Q110" si="41">P109</f>
+        <v>0</v>
+      </c>
+      <c r="R110" s="1">
+        <f t="shared" ref="R110" si="42">Q109</f>
+        <v>0</v>
+      </c>
+      <c r="S110" s="1">
+        <f t="shared" ref="S110" si="43">R109</f>
+        <v>0</v>
+      </c>
+      <c r="T110" s="1">
+        <f t="shared" ref="T110" si="44">S109</f>
+        <v>0</v>
+      </c>
+      <c r="U110" s="1">
+        <f t="shared" ref="U110" si="45">T109</f>
+        <v>0</v>
+      </c>
+      <c r="V110" s="1">
+        <f t="shared" ref="V110" si="46">U109</f>
+        <v>0</v>
+      </c>
+      <c r="W110" s="1">
+        <f t="shared" ref="W110" si="47">V109</f>
+        <v>0</v>
+      </c>
+      <c r="X110" s="1">
+        <f t="shared" ref="X110" si="48">W109</f>
+        <v>0</v>
+      </c>
+      <c r="Y110" s="1">
+        <f t="shared" ref="Y110" si="49">X109</f>
+        <v>0</v>
+      </c>
+      <c r="Z110" s="1">
+        <f t="shared" ref="Z110" si="50">Y109</f>
+        <v>0</v>
+      </c>
+      <c r="AA110" s="1">
+        <f t="shared" ref="AA110" si="51">Z109</f>
+        <v>7714</v>
+      </c>
+      <c r="AC110" s="1">
+        <f t="shared" ref="AC110" si="52">AB109</f>
+        <v>0</v>
+      </c>
+      <c r="AD110" s="1">
+        <f t="shared" ref="AD110" si="53">AC109</f>
+        <v>0</v>
+      </c>
+      <c r="AE110" s="1">
+        <f t="shared" ref="AE110" si="54">AD109</f>
+        <v>0</v>
+      </c>
+      <c r="AF110" s="1">
+        <f t="shared" ref="AF110" si="55">AE109</f>
+        <v>0</v>
+      </c>
+      <c r="AG110" s="1">
+        <f t="shared" ref="AG110" si="56">AF109</f>
+        <v>0</v>
+      </c>
+      <c r="AH110" s="1">
+        <f t="shared" ref="AH110" si="57">AG109</f>
+        <v>0</v>
+      </c>
+      <c r="AI110" s="1">
+        <f t="shared" ref="AI110" si="58">AH109</f>
+        <v>0</v>
+      </c>
+      <c r="AJ110" s="1">
+        <f t="shared" ref="AJ110" si="59">AI109</f>
+        <v>0</v>
+      </c>
+      <c r="AK110" s="1">
+        <f t="shared" ref="AK110" si="60">AJ109</f>
+        <v>0</v>
+      </c>
+      <c r="AL110" s="1">
+        <f t="shared" ref="AL110" si="61">AK109</f>
+        <v>0</v>
+      </c>
+      <c r="AM110" s="1">
+        <f t="shared" ref="AM110" si="62">AL109</f>
+        <v>0</v>
+      </c>
+      <c r="AN110" s="1">
+        <f t="shared" ref="AN110" si="63">AM109</f>
+        <v>1674</v>
+      </c>
+      <c r="AP110">
+        <f t="shared" ref="AP110" si="64">AO109</f>
+        <v>0</v>
+      </c>
+      <c r="AQ110">
+        <f t="shared" ref="AQ110" si="65">AP109</f>
+        <v>0</v>
+      </c>
+      <c r="AR110">
+        <f t="shared" ref="AR110" si="66">AQ109</f>
+        <v>0</v>
+      </c>
+      <c r="AS110">
+        <f t="shared" ref="AS110" si="67">AR109</f>
+        <v>0</v>
+      </c>
+      <c r="AT110">
+        <f t="shared" ref="AT110" si="68">AS109</f>
+        <v>0</v>
+      </c>
+      <c r="AU110">
+        <f t="shared" ref="AU110" si="69">AT109</f>
+        <v>0</v>
+      </c>
+      <c r="AV110">
+        <f t="shared" ref="AV110" si="70">AU109</f>
+        <v>0</v>
+      </c>
+      <c r="AW110">
+        <f t="shared" ref="AW110" si="71">AV109</f>
+        <v>0</v>
+      </c>
+      <c r="AX110">
+        <f t="shared" ref="AX110" si="72">AW109</f>
+        <v>0</v>
+      </c>
+      <c r="AY110">
+        <f t="shared" ref="AY110" si="73">AX109</f>
+        <v>0</v>
+      </c>
+      <c r="AZ110">
+        <f t="shared" ref="AZ110" si="74">AY109</f>
+        <v>0</v>
+      </c>
+      <c r="BA110">
+        <f t="shared" ref="BA110" si="75">AZ109</f>
+        <v>125222</v>
+      </c>
+      <c r="BC110" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="BD110" s="1">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="BE110" s="1">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="BF110" s="1">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="BG110">
+        <f t="shared" ref="BG110" si="76">BF109</f>
+        <v>0</v>
+      </c>
+      <c r="BH110">
+        <f t="shared" ref="BH110" si="77">BG109</f>
+        <v>0</v>
+      </c>
+      <c r="BI110">
+        <f t="shared" ref="BI110" si="78">BH109</f>
+        <v>0</v>
+      </c>
+      <c r="BJ110">
+        <f t="shared" ref="BJ110" si="79">BI109</f>
+        <v>0</v>
+      </c>
+      <c r="BK110">
+        <f t="shared" ref="BK110" si="80">BJ109</f>
+        <v>0</v>
+      </c>
+      <c r="BL110">
+        <f t="shared" ref="BL110" si="81">BK109</f>
+        <v>0</v>
+      </c>
+      <c r="BM110">
+        <f t="shared" ref="BM110" si="82">BL109</f>
+        <v>0</v>
+      </c>
+      <c r="BN110">
+        <f t="shared" ref="BN110" si="83">BM109</f>
+        <v>54</v>
+      </c>
+      <c r="BP110">
+        <f t="shared" ref="BP110" si="84">BO109</f>
+        <v>0</v>
+      </c>
+      <c r="BQ110">
+        <f t="shared" ref="BQ110" si="85">BP109</f>
+        <v>0</v>
+      </c>
+      <c r="BR110">
+        <f t="shared" ref="BR110" si="86">BQ109</f>
+        <v>0</v>
+      </c>
+      <c r="BS110">
+        <f t="shared" ref="BS110" si="87">BR109</f>
+        <v>0</v>
+      </c>
+      <c r="BT110">
+        <f t="shared" ref="BT110" si="88">BS109</f>
+        <v>0</v>
+      </c>
+      <c r="BU110">
+        <f t="shared" ref="BU110" si="89">BT109</f>
+        <v>0</v>
+      </c>
+      <c r="BV110">
+        <f t="shared" ref="BV110" si="90">BU109</f>
+        <v>0</v>
+      </c>
+      <c r="BW110">
+        <f t="shared" ref="BW110" si="91">BV109</f>
+        <v>0</v>
+      </c>
+      <c r="BX110">
+        <f t="shared" ref="BX110" si="92">BW109</f>
+        <v>0</v>
+      </c>
+      <c r="BY110">
+        <f t="shared" ref="BY110" si="93">BX109</f>
+        <v>0</v>
+      </c>
+      <c r="BZ110">
+        <f t="shared" ref="BZ110" si="94">BY109</f>
+        <v>0</v>
+      </c>
+      <c r="CA110">
+        <f t="shared" ref="CA110" si="95">BZ109</f>
+        <v>96</v>
+      </c>
+      <c r="CB110">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/code/predictive modeling/funkcni/funcni data set.xlsx
+++ b/code/predictive modeling/funkcni/funcni data set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f619c9dbaff66258/development/github/sws/code/predictive modeling/funkcni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{7CD2E4E8-1F28-44FE-ADE5-F3B50EE5FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{038BE048-53A7-4A3F-8C17-EE144B1D2570}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{7CD2E4E8-1F28-44FE-ADE5-F3B50EE5FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9214722D-E1E4-4D87-AC3D-80BC72430C9A}"/>
   <bookViews>
-    <workbookView xWindow="11415" yWindow="0" windowWidth="11730" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2670" yWindow="3975" windowWidth="17280" windowHeight="10665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +337,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -411,6 +417,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA82" workbookViewId="0">
-      <selection activeCell="BE112" sqref="BE112"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29828,305 +29836,305 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:80" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+    <row r="98" spans="1:80" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="16">
         <v>202302</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="17">
         <v>700</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="16">
         <v>700</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="16">
         <v>700</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="16">
         <v>700</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98" s="16">
         <v>700</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G98" s="16">
         <v>700</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H98" s="16">
         <v>575</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I98" s="16">
         <v>500</v>
       </c>
-      <c r="J98" s="1">
+      <c r="J98" s="16">
         <v>450</v>
       </c>
-      <c r="K98" s="1">
+      <c r="K98" s="16">
         <v>450</v>
       </c>
-      <c r="L98" s="1">
+      <c r="L98" s="16">
         <v>375</v>
       </c>
-      <c r="M98" s="1">
+      <c r="M98" s="16">
         <v>375</v>
       </c>
-      <c r="N98" s="1">
+      <c r="N98" s="16">
         <v>275</v>
       </c>
-      <c r="O98" s="1">
+      <c r="O98" s="16">
         <v>7714</v>
       </c>
-      <c r="P98" s="3">
+      <c r="P98" s="17">
         <f t="shared" si="21"/>
         <v>9268</v>
       </c>
-      <c r="Q98" s="1">
+      <c r="Q98" s="16">
         <f t="shared" si="26"/>
         <v>7674</v>
       </c>
-      <c r="R98" s="1">
+      <c r="R98" s="16">
         <f t="shared" si="26"/>
         <v>8366</v>
       </c>
-      <c r="S98" s="1">
+      <c r="S98" s="16">
         <f t="shared" si="26"/>
         <v>8270</v>
       </c>
-      <c r="T98" s="1">
+      <c r="T98" s="16">
         <f t="shared" si="26"/>
         <v>7778</v>
       </c>
-      <c r="U98" s="1">
+      <c r="U98" s="16">
         <f t="shared" si="26"/>
         <v>7141</v>
       </c>
-      <c r="V98" s="1">
+      <c r="V98" s="16">
         <f t="shared" si="26"/>
         <v>6637</v>
       </c>
-      <c r="W98" s="1">
+      <c r="W98" s="16">
         <f t="shared" si="26"/>
         <v>6626</v>
       </c>
-      <c r="X98" s="1">
+      <c r="X98" s="16">
         <f t="shared" si="26"/>
         <v>6266</v>
       </c>
-      <c r="Y98" s="1">
+      <c r="Y98" s="16">
         <f t="shared" si="26"/>
         <v>5821</v>
       </c>
-      <c r="Z98" s="1">
+      <c r="Z98" s="16">
         <f t="shared" si="26"/>
         <v>5573</v>
       </c>
-      <c r="AA98" s="1">
+      <c r="AA98" s="16">
         <f t="shared" si="26"/>
         <v>4947</v>
       </c>
-      <c r="AB98" s="1">
+      <c r="AB98" s="16">
         <v>1674</v>
       </c>
-      <c r="AC98" s="1">
+      <c r="AC98" s="16">
         <f t="shared" si="25"/>
         <v>2760</v>
       </c>
-      <c r="AD98" s="1">
+      <c r="AD98" s="16">
         <f t="shared" si="27"/>
         <v>1166</v>
       </c>
-      <c r="AE98" s="1">
+      <c r="AE98" s="16">
         <f t="shared" si="27"/>
         <v>1842</v>
       </c>
-      <c r="AF98" s="1">
+      <c r="AF98" s="16">
         <f t="shared" si="27"/>
         <v>2044</v>
       </c>
-      <c r="AG98" s="1">
+      <c r="AG98" s="16">
         <f t="shared" si="27"/>
         <v>1961</v>
       </c>
-      <c r="AH98" s="1">
+      <c r="AH98" s="16">
         <f t="shared" si="27"/>
         <v>1814</v>
       </c>
-      <c r="AI98" s="1">
+      <c r="AI98" s="16">
         <f t="shared" si="27"/>
         <v>1654</v>
       </c>
-      <c r="AJ98" s="1">
+      <c r="AJ98" s="16">
         <f t="shared" si="27"/>
         <v>1952</v>
       </c>
-      <c r="AK98" s="1">
+      <c r="AK98" s="16">
         <f t="shared" si="27"/>
         <v>1932</v>
       </c>
-      <c r="AL98" s="1">
+      <c r="AL98" s="16">
         <f t="shared" si="27"/>
         <v>1822</v>
       </c>
-      <c r="AM98" s="1">
+      <c r="AM98" s="16">
         <f t="shared" si="27"/>
         <v>1894</v>
       </c>
-      <c r="AN98" s="1">
+      <c r="AN98" s="16">
         <f t="shared" si="27"/>
         <v>1473</v>
       </c>
-      <c r="AO98" s="1">
+      <c r="AO98" s="16">
         <v>125222</v>
       </c>
-      <c r="AP98" s="1">
+      <c r="AP98" s="16">
         <f t="shared" si="22"/>
         <v>124827</v>
       </c>
-      <c r="AQ98" s="1">
+      <c r="AQ98" s="16">
         <f t="shared" si="28"/>
         <v>125408</v>
       </c>
-      <c r="AR98" s="1">
+      <c r="AR98" s="16">
         <f t="shared" si="28"/>
         <v>125341</v>
       </c>
-      <c r="AS98" s="1">
+      <c r="AS98" s="16">
         <f t="shared" si="28"/>
         <v>127614</v>
       </c>
-      <c r="AT98" s="1">
+      <c r="AT98" s="16">
         <f t="shared" si="28"/>
         <v>129070</v>
       </c>
-      <c r="AU98" s="1">
+      <c r="AU98" s="16">
         <f t="shared" si="28"/>
         <v>130789</v>
       </c>
-      <c r="AV98" s="1">
+      <c r="AV98" s="16">
         <f t="shared" si="28"/>
         <v>131451</v>
       </c>
-      <c r="AW98" s="1">
+      <c r="AW98" s="16">
         <f t="shared" si="28"/>
         <v>131416</v>
       </c>
-      <c r="AX98" s="1">
+      <c r="AX98" s="16">
         <f t="shared" si="28"/>
         <v>132193</v>
       </c>
-      <c r="AY98" s="1">
+      <c r="AY98" s="16">
         <f t="shared" si="28"/>
         <v>132612</v>
       </c>
-      <c r="AZ98" s="1">
+      <c r="AZ98" s="16">
         <f t="shared" si="28"/>
         <v>130706</v>
       </c>
-      <c r="BA98" s="1">
+      <c r="BA98" s="16">
         <f t="shared" si="28"/>
         <v>130339</v>
       </c>
-      <c r="BB98" s="1">
+      <c r="BB98" s="16">
         <v>54</v>
       </c>
-      <c r="BC98" s="1">
+      <c r="BC98" s="16">
         <f t="shared" si="23"/>
         <v>59</v>
       </c>
-      <c r="BD98" s="1">
+      <c r="BD98" s="16">
         <f t="shared" si="29"/>
         <v>55</v>
       </c>
-      <c r="BE98" s="1">
+      <c r="BE98" s="16">
         <f t="shared" si="29"/>
         <v>60</v>
       </c>
-      <c r="BF98" s="1">
+      <c r="BF98" s="16">
         <f t="shared" si="29"/>
         <v>64</v>
       </c>
-      <c r="BG98" s="1">
+      <c r="BG98" s="16">
         <f t="shared" si="29"/>
         <v>65</v>
       </c>
-      <c r="BH98" s="1">
+      <c r="BH98" s="16">
         <f t="shared" si="29"/>
         <v>70</v>
       </c>
-      <c r="BI98" s="1">
+      <c r="BI98" s="16">
         <f t="shared" si="29"/>
         <v>69</v>
       </c>
-      <c r="BJ98" s="1">
+      <c r="BJ98" s="16">
         <f t="shared" si="29"/>
         <v>85</v>
       </c>
-      <c r="BK98" s="1">
+      <c r="BK98" s="16">
         <f t="shared" si="29"/>
         <v>79</v>
       </c>
-      <c r="BL98" s="1">
+      <c r="BL98" s="16">
         <f t="shared" si="29"/>
         <v>128</v>
       </c>
-      <c r="BM98" s="1">
+      <c r="BM98" s="16">
         <f t="shared" si="29"/>
         <v>117</v>
       </c>
-      <c r="BN98" s="1">
+      <c r="BN98" s="16">
         <f t="shared" si="29"/>
         <v>117</v>
       </c>
-      <c r="BO98" s="1">
+      <c r="BO98" s="16">
         <v>96</v>
       </c>
-      <c r="BP98" s="1">
+      <c r="BP98" s="16">
         <f t="shared" si="24"/>
         <v>93</v>
       </c>
-      <c r="BQ98" s="1">
+      <c r="BQ98" s="16">
         <f t="shared" si="30"/>
         <v>88</v>
       </c>
-      <c r="BR98" s="1">
+      <c r="BR98" s="16">
         <f t="shared" si="30"/>
         <v>75</v>
       </c>
-      <c r="BS98" s="1">
+      <c r="BS98" s="16">
         <f t="shared" si="30"/>
         <v>80</v>
       </c>
-      <c r="BT98" s="1">
+      <c r="BT98" s="16">
         <f t="shared" si="30"/>
         <v>71</v>
       </c>
-      <c r="BU98" s="1">
+      <c r="BU98" s="16">
         <f t="shared" si="30"/>
         <v>67</v>
       </c>
-      <c r="BV98" s="1">
+      <c r="BV98" s="16">
         <f t="shared" si="30"/>
         <v>68</v>
       </c>
-      <c r="BW98" s="1">
+      <c r="BW98" s="16">
         <f t="shared" si="30"/>
         <v>66</v>
       </c>
-      <c r="BX98" s="1">
+      <c r="BX98" s="16">
         <f t="shared" si="30"/>
         <v>60</v>
       </c>
-      <c r="BY98" s="1">
+      <c r="BY98" s="16">
         <f t="shared" si="30"/>
         <v>62</v>
       </c>
-      <c r="BZ98" s="1">
+      <c r="BZ98" s="16">
         <f t="shared" si="30"/>
         <v>62</v>
       </c>
-      <c r="CA98" s="1">
+      <c r="CA98" s="16">
         <f t="shared" si="30"/>
         <v>67</v>
       </c>
-      <c r="CB98">
+      <c r="CB98" s="16">
         <v>96</v>
       </c>
     </row>
@@ -31499,7 +31507,7 @@
         <v>55</v>
       </c>
       <c r="BJ103">
-        <f t="shared" ref="BF103:BN109" si="38">BI102</f>
+        <f t="shared" ref="BG103:BN109" si="38">BI102</f>
         <v>60</v>
       </c>
       <c r="BK103">
